--- a/Chapter3資料整理與前處理/Error_Analyze.xlsx
+++ b/Chapter3資料整理與前處理/Error_Analyze.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Chapter3資料整理與前處理\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A895C05-4313-4726-9F51-561A77568454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="票種異常統計" sheetId="1" r:id="rId1"/>
     <sheet name="超過7天票種統計" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -92,12 +86,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -105,15 +99,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,23 +146,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,27 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,24 +262,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,26 +437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -565,7 +496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -591,7 +522,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -617,7 +548,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -643,7 +574,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -669,7 +600,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -695,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -721,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -747,7 +678,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -773,7 +704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -799,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -825,7 +756,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -851,7 +782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -878,21 +809,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +837,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -916,7 +845,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -924,7 +853,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -932,7 +861,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -940,7 +869,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -948,23 +877,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -972,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -980,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -988,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -997,7 +926,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Chapter3資料整理與前處理/Error_Analyze.xlsx
+++ b/Chapter3資料整理與前處理/Error_Analyze.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>票種</t>
   </si>
   <si>
-    <t>總筆數</t>
-  </si>
-  <si>
-    <t>車號不可辨識</t>
+    <t>票種錯誤資料數</t>
+  </si>
+  <si>
+    <t>各票種正確總筆數</t>
+  </si>
+  <si>
+    <t>錯誤占比(%)</t>
   </si>
   <si>
     <t>魔幻進出時間</t>
@@ -438,13 +441,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,25 +472,28 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>24</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>4329</v>
       </c>
       <c r="D2">
+        <v>0.55</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -495,233 +501,260 @@
       <c r="H2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>821</v>
       </c>
       <c r="C3">
+        <v>18273</v>
+      </c>
+      <c r="D3">
+        <v>4.49</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
         <v>247</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>811</v>
+      </c>
+      <c r="I3">
         <v>247</v>
       </c>
-      <c r="G3">
-        <v>811</v>
-      </c>
-      <c r="H3">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1664</v>
       </c>
       <c r="C4">
+        <v>75773</v>
+      </c>
+      <c r="D4">
+        <v>2.2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>278</v>
+      </c>
+      <c r="G4">
         <v>218</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>278</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>1382</v>
+      </c>
+      <c r="I4">
         <v>218</v>
       </c>
-      <c r="G4">
-        <v>1382</v>
-      </c>
-      <c r="H4">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3901</v>
       </c>
       <c r="C5">
+        <v>53146</v>
+      </c>
+      <c r="D5">
+        <v>7.34</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>983</v>
+      </c>
+      <c r="G5">
         <v>198</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>983</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>2914</v>
+      </c>
+      <c r="I5">
         <v>198</v>
       </c>
-      <c r="G5">
-        <v>2914</v>
-      </c>
-      <c r="H5">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>18753</v>
       </c>
       <c r="C6">
+        <v>288993</v>
+      </c>
+      <c r="D6">
+        <v>6.49</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1269</v>
+      </c>
+      <c r="G6">
         <v>2198</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1269</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>17478</v>
+      </c>
+      <c r="I6">
         <v>2198</v>
       </c>
-      <c r="G6">
-        <v>17478</v>
-      </c>
-      <c r="H6">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>155</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5711</v>
       </c>
       <c r="D7">
+        <v>2.71</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>149</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>40238</v>
       </c>
       <c r="C9">
+        <v>503024</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>6162</v>
+      </c>
+      <c r="G9">
         <v>3184</v>
       </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>6162</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
+        <v>15275</v>
+      </c>
+      <c r="I9">
         <v>3184</v>
       </c>
-      <c r="G9">
-        <v>15275</v>
-      </c>
-      <c r="H9">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>4446</v>
       </c>
       <c r="C10">
+        <v>31594</v>
+      </c>
+      <c r="D10">
+        <v>14.07</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>76</v>
+      </c>
+      <c r="G10">
         <v>24</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>76</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>4366</v>
+      </c>
+      <c r="I10">
         <v>24</v>
       </c>
-      <c r="G10">
-        <v>4366</v>
-      </c>
-      <c r="H10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2285</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -729,82 +762,94 @@
       <c r="H11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1110</v>
       </c>
       <c r="C12">
+        <v>27704</v>
+      </c>
+      <c r="D12">
+        <v>4.01</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>465</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>1104</v>
+      </c>
+      <c r="I12">
         <v>465</v>
       </c>
-      <c r="G12">
-        <v>1104</v>
-      </c>
-      <c r="H12">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>54</v>
       </c>
       <c r="C13">
+        <v>8615</v>
+      </c>
+      <c r="D13">
+        <v>0.63</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>52</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
+        <v>54</v>
+      </c>
+      <c r="I13">
         <v>52</v>
       </c>
-      <c r="G13">
-        <v>54</v>
-      </c>
-      <c r="H13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>5952</v>
       </c>
       <c r="C14">
+        <v>2530</v>
+      </c>
+      <c r="D14">
+        <v>235.26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>170</v>
+      </c>
+      <c r="G14">
         <v>73</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>170</v>
-      </c>
-      <c r="F14">
-        <v>73</v>
-      </c>
-      <c r="G14">
+      <c r="H14">
         <v>5772</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>73</v>
       </c>
     </row>
@@ -826,12 +871,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>6162</v>
@@ -839,7 +884,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1269</v>
@@ -847,7 +892,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>983</v>
@@ -855,7 +900,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>278</v>
@@ -863,7 +908,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>170</v>
@@ -871,7 +916,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>76</v>
@@ -879,7 +924,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -895,7 +940,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -903,7 +948,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -911,7 +956,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -919,7 +964,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1</v>

--- a/Chapter3資料整理與前處理/Error_Analyze.xlsx
+++ b/Chapter3資料整理與前處理/Error_Analyze.xlsx
@@ -924,7 +924,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>10</v>

--- a/Chapter3資料整理與前處理/Error_Analyze.xlsx
+++ b/Chapter3資料整理與前處理/Error_Analyze.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Chapter3資料整理與前處理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68306F-EC96-4918-B7C3-F5B5CBB43417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28800" yWindow="1530" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="票種異常統計" sheetId="1" r:id="rId1"/>
     <sheet name="超過7天票種統計" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>票種</t>
   </si>
   <si>
     <t>票種錯誤資料數</t>
-  </si>
-  <si>
-    <t>各票種正確總筆數</t>
-  </si>
-  <si>
-    <t>錯誤占比(%)</t>
   </si>
   <si>
     <t>魔幻進出時間</t>
@@ -89,12 +89,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -102,8 +102,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,15 +156,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +246,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,6 +298,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,14 +491,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,199 +531,157 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>24</v>
       </c>
       <c r="C2">
-        <v>4329</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.55</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>821</v>
       </c>
       <c r="C3">
-        <v>18273</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.49</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>811</v>
       </c>
       <c r="G3">
         <v>247</v>
       </c>
-      <c r="H3">
-        <v>811</v>
-      </c>
-      <c r="I3">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1664</v>
       </c>
       <c r="C4">
-        <v>75773</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2.2</v>
+        <v>278</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="F4">
-        <v>278</v>
+        <v>1382</v>
       </c>
       <c r="G4">
         <v>218</v>
       </c>
-      <c r="H4">
-        <v>1382</v>
-      </c>
-      <c r="I4">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3901</v>
       </c>
       <c r="C5">
-        <v>53146</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7.34</v>
+        <v>983</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="F5">
-        <v>983</v>
+        <v>2914</v>
       </c>
       <c r="G5">
         <v>198</v>
       </c>
-      <c r="H5">
-        <v>2914</v>
-      </c>
-      <c r="I5">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>18753</v>
       </c>
       <c r="C6">
-        <v>288993</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6.49</v>
+        <v>1269</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2198</v>
       </c>
       <c r="F6">
-        <v>1269</v>
+        <v>17478</v>
       </c>
       <c r="G6">
         <v>2198</v>
       </c>
-      <c r="H6">
-        <v>17478</v>
-      </c>
-      <c r="I6">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>155</v>
       </c>
       <c r="C7">
-        <v>5711</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2.71</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>149</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>33.33</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -672,305 +692,266 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>40238</v>
       </c>
       <c r="C9">
-        <v>503024</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6162</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>3184</v>
       </c>
       <c r="F9">
-        <v>6162</v>
+        <v>15275</v>
       </c>
       <c r="G9">
         <v>3184</v>
       </c>
-      <c r="H9">
-        <v>15275</v>
-      </c>
-      <c r="I9">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>4446</v>
       </c>
       <c r="C10">
-        <v>31594</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>14.07</v>
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>76</v>
+        <v>4366</v>
       </c>
       <c r="G10">
         <v>24</v>
       </c>
-      <c r="H10">
-        <v>4366</v>
-      </c>
-      <c r="I10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>2285</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>27704</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>465</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1104</v>
       </c>
       <c r="G12">
         <v>465</v>
       </c>
-      <c r="H12">
-        <v>1104</v>
-      </c>
-      <c r="I12">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>54</v>
       </c>
       <c r="C13">
-        <v>8615</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>52</v>
       </c>
-      <c r="H13">
-        <v>54</v>
-      </c>
-      <c r="I13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>5952</v>
       </c>
       <c r="C14">
-        <v>2530</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>235.26</v>
+        <v>170</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F14">
-        <v>170</v>
+        <v>5772</v>
       </c>
       <c r="G14">
         <v>73</v>
       </c>
-      <c r="H14">
-        <v>5772</v>
-      </c>
-      <c r="I14">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>6162</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1269</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>983</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>